--- a/exec/기획/UnPeu_요구사항목록.xlsx
+++ b/exec/기획/UnPeu_요구사항목록.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeong Hee Yeon\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\kimjy\PJT\자율PJT\Main-git\exec\기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{927E9B82-B460-4FB7-990D-ACAFF812119D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="28557" windowHeight="15563" xr2:uid="{112C4AAF-F92A-4B93-9F88-2C692E5950F1}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="28560" windowHeight="15564"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -99,9 +98,6 @@
     <t>로그인 추가정보 입력</t>
   </si>
   <si>
-    <t>생년월일과 이메일을 추가로 입력 받는다.</t>
-  </si>
-  <si>
     <t>중</t>
   </si>
   <si>
@@ -183,20 +179,10 @@
     <t>공유 버튼을 누르면 링크가 복사된다.</t>
   </si>
   <si>
-    <t>메인페이지 관리
-(세연)</t>
-  </si>
-  <si>
     <t>메인 화면</t>
   </si>
   <si>
     <t>Req-2.1</t>
-  </si>
-  <si>
-    <t>애니메이션</t>
-  </si>
-  <si>
-    <t>설정해놓은 날짜가 되면 선물함이 터지는 애니메이션 연출이 나온다.</t>
   </si>
   <si>
     <t>Req-2.2</t>
@@ -343,9 +329,6 @@
     <t>엿보기</t>
   </si>
   <si>
-    <t>선물한 전체 금액을 볼 수 있으며, 이미지가 금액에 따라 달라진다</t>
-  </si>
-  <si>
     <t>다이어리 관리
 (정윤)</t>
   </si>
@@ -420,135 +403,33 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로그아웃한다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>소셜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로그인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로그아웃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>).</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">UnPeu </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>요구사항</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>목록</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <t>선물을 받아서 그 선물을 구매할 수 있는 가격이 채워졌을 시에 살 수 있는 선물을 보여준다</t>
+  </si>
+  <si>
+    <t>요구사항 목록</t>
+  </si>
+  <si>
+    <t>생년월일과 이메일을 추가로 입력 받는다. 또한 이베일과, 생일의 공개여부를 입력받는다.</t>
+  </si>
+  <si>
+    <t>로그아웃한다(소셜 로그인 로그아웃).</t>
+  </si>
+  <si>
+    <t>이벤트룸 관리
+(세연)</t>
+  </si>
+  <si>
+    <t>화면 전환</t>
+  </si>
+  <si>
+    <t>설정해놓은 날짜가 되면 선물함이 터지는 이미지가 노출된다.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -611,35 +492,6 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="3"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -899,7 +751,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -969,6 +821,15 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -998,12 +859,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1318,36 +1173,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7650314-1DDD-4258-866A-6A5C5CC4C08A}">
-  <dimension ref="A1:G31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G29" sqref="A1:G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.75" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" customWidth="1"/>
+    <col min="1" max="1" width="15.3984375" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="25.54296875" customWidth="1"/>
-    <col min="5" max="5" width="63.1796875" customWidth="1"/>
-    <col min="6" max="6" width="19.36328125" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" customWidth="1"/>
+    <col min="4" max="4" width="25.5" customWidth="1"/>
+    <col min="5" max="5" width="70.19921875" customWidth="1"/>
+    <col min="6" max="6" width="19.3984375" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.05" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="24"/>
-    </row>
-    <row r="2" spans="1:7" ht="18.3" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27"/>
+    </row>
+    <row r="2" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1370,8 +1225,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18.3" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1380,7 +1235,7 @@
       <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -1393,40 +1248,40 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.3" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
+    <row r="4" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29"/>
       <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29"/>
+      <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="18.3" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="26"/>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>110</v>
+      <c r="D5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>12</v>
@@ -1435,135 +1290,135 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.3" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
+    <row r="6" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="29"/>
       <c r="B6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29"/>
+      <c r="B7" s="31" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="18.3" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="28" t="s">
+      <c r="C7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="29"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="18.3" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="29"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="18.3" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="29"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="18.3" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="G10" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="29"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="18.3" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="18.3" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="12" t="s">
+      <c r="D12" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="E12" s="13" t="s">
         <v>43</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>44</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>12</v>
@@ -1572,99 +1427,99 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18.3" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
+    <row r="13" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="D13" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="29"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D14" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="F14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="29"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="18.3" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="6" t="s">
+      <c r="D15" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="E15" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="F15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="29"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="18.3" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="6" t="s">
+      <c r="D16" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="E16" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="F16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="29"/>
+      <c r="B17" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="38.799999999999997" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D17" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="18.3" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
-      <c r="B17" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>12</v>
@@ -1673,17 +1528,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="26.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27"/>
-      <c r="B18" s="30"/>
+    <row r="18" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="30"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>12</v>
@@ -1692,21 +1547,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.3" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="25" t="s">
+    <row r="19" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>12</v>
@@ -1715,17 +1570,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18.3" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="26"/>
-      <c r="B20" s="29"/>
+    <row r="20" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="29"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>72</v>
+        <v>67</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>68</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>12</v>
@@ -1734,17 +1589,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18.3" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
-      <c r="B21" s="32"/>
+    <row r="21" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="29"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>71</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>12</v>
@@ -1753,19 +1608,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="26.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="26"/>
+    <row r="22" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="29"/>
       <c r="B22" s="19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>75</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>12</v>
@@ -1774,19 +1629,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="18.3" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
-      <c r="B23" s="28" t="s">
-        <v>81</v>
+    <row r="23" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="29"/>
+      <c r="B23" s="31" t="s">
+        <v>77</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>12</v>
@@ -1794,60 +1649,61 @@
       <c r="G23" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="18.3" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="26"/>
-      <c r="B24" s="29"/>
+      <c r="H23" s="23"/>
+    </row>
+    <row r="24" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="29"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="30"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="E25" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="B26" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F24" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="18.3" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="27"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="12" t="s">
+      <c r="C26" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D26" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E26" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="18.3" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>12</v>
@@ -1856,17 +1712,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="18.3" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="26"/>
-      <c r="B27" s="29"/>
+    <row r="27" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="29"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>96</v>
+        <v>90</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>12</v>
@@ -1875,17 +1731,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="18.3" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="26"/>
-      <c r="B28" s="29"/>
+    <row r="28" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="29"/>
+      <c r="B28" s="32"/>
       <c r="C28" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>99</v>
+        <v>93</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>12</v>
@@ -1894,36 +1750,36 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="26.05" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="26"/>
-      <c r="B29" s="29"/>
+    <row r="29" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="29"/>
+      <c r="B29" s="32"/>
       <c r="C29" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="29"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="18.3" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="26"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>12</v>
@@ -1932,17 +1788,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="26.05" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="27"/>
-      <c r="B31" s="30"/>
+    <row r="31" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="30"/>
+      <c r="B31" s="33"/>
       <c r="C31" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>108</v>
+        <v>102</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>103</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>12</v>
